--- a/question_data.xlsx
+++ b/question_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machajes/Dropbox/gamefulthinking/alexa/studyingameful/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machajes/Dropbox/gamefulthinking/alexa/gamificationstudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>gamification</t>
   </si>
@@ -103,34 +103,6 @@
   </si>
   <si>
     <t>the flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity,  urgent optimism,  social fabric, and what did she call the desire to do something that matters, be a hero, be of service, be involved with a goal?
-</t>
-  </si>
-  <si>
-    <t>blissful productivity</t>
-  </si>
-  <si>
-    <t>epic meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane McGonigal described four areas where gamers excel.  These are:  urgent optimism,  social fabric, epic meaning, and what did she call when we stay determined and work on a task even if the goal is far off?
-</t>
-  </si>
-  <si>
-    <t>urgent optimism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity, social fabric, epic meaning, and what did she call when we keep going even if we fail, which for gamers is about 80% of the experience?
-</t>
-  </si>
-  <si>
-    <t>social fabric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity,  urgent optimism, epic meaning, and what did she call playing games with others to form relationships, playing games with strangers, friends, or family?
-</t>
   </si>
   <si>
     <t>Dr. Stuart Brown, founder and president of the National Institute For Play, famously said that: The opposite of play is not work, but what?</t>
@@ -516,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:A23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C23" si="0">"{"""&amp; B2 &amp;""":[""" &amp; A2 &amp; """]},"</f>
+        <f t="shared" ref="C2:C19" si="0">"{"""&amp; B2 &amp;""":[""" &amp; A2 &amp; """]},"</f>
         <v>{"Who said this about sport games: Some people believe football is a matter of life and death, I am very disappointed with that attitude. I can assure you it is much, much more important than that.":["Bill Shankly"]},</v>
       </c>
     </row>
@@ -648,64 +620,64 @@
         <v>{"In his book The Psychology of Optimal Experience, Mihaly Csikszentmihalyi describes a state of high attention and engagement in a well designed progress of a task.  What did he call this state of mind between boredom and anxiety?":["the flow"]},</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>{"Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity,  urgent optimism,  social fabric, and what did she call the desire to do something that matters, be a hero, be of service, be involved with a goal?_x000D_":["epic meaning"]},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>{"Dr. Stuart Brown, founder and president of the National Institute For Play, famously said that: The opposite of play is not work, but what?":["depression."]},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>{"Jane McGonigal described four areas where gamers excel.  These are:  urgent optimism,  social fabric, epic meaning, and what did she call when we stay determined and work on a task even if the goal is far off?_x000D_":["blissful productivity"]},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>{"Failure has many definitions, but what would you say is a failure to fail?":["success"]},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>{"Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity, social fabric, epic meaning, and what did she call when we keep going even if we fail, which for gamers is about 80% of the experience?_x000D_":["urgent optimism"]},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>{"Here are some definitions of failure:  1. Failure is a precondition for success. 2. Failure is a lost opportunity. 3. Failure is an unwelcome outcome that matters.  Finish this quote by Thomas Watson Jr., 2nd president of IBM: If you want to increase your success rate, double your ...":["failure rate"]},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>{"Jane McGonigal described four areas where gamers excel.  These are:  blissful productivity,  urgent optimism, epic meaning, and what did she call playing games with others to form relationships, playing games with strangers, friends, or family?_x000D_":["social fabric"]},</v>
+        <v>{"In what book did Bernard Suits provide this definition of a game: the voluntary attempt to overcome unnecessary obstacles.":["The Grasshopper"]},</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>{"Dr. Stuart Brown, founder and president of the National Institute For Play, famously said that: The opposite of play is not work, but what?":["depression."]},</v>
+        <v>{"In what book did Jasper Juul claim that in contrast to most situations, games are one of the few environments where people seek out failure and even enjoy it.":["The Art of Failure"]},</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,89 +689,41 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>{"Failure has many definitions, but what would you say is a failure to fail?":["success"]},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
+        <v>{"When people enjoy going to movies about tragedies, or when they enjoy looking at art depicting terrible pain, when catharsis does its job, we call it the paradox of …":["Painful Art"]},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>{"Here are some definitions of failure:  1. Failure is a precondition for success. 2. Failure is a lost opportunity. 3. Failure is an unwelcome outcome that matters.  Finish this quote by Thomas Watson Jr., 2nd president of IBM: If you want to increase your success rate, double your ...":["failure rate"]},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
+        <v>{"According to the 2016 report by the Entertainment Software Association, what is the average age of a gamer in the US?":["35"]},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"According to the 2016 report by the Entertainment Software Association, 48% of US households own a dedicated game console, players played games for 13 years, and the most frequent male player is 35 years old. What is the age of a most frequent female player?":["44"]},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>{"In what book did Bernard Suits provide this definition of a game: the voluntary attempt to overcome unnecessary obstacles.":["The Grasshopper"]},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>{"In what book did Jasper Juul claim that in contrast to most situations, games are one of the few environments where people seek out failure and even enjoy it.":["The Art of Failure"]},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>{"When people enjoy going to movies about tragedies, or when they enjoy looking at art depicting terrible pain, when catharsis does its job, we call it the paradox of …":["Painful Art"]},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>{"According to the 2016 report by the Entertainment Software Association, what is the average age of a gamer in the US?":["35"]},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>44</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>{"According to the 2016 report by the Entertainment Software Association, 48% of US households own a dedicated game console, players played games for 13 years, and the most frequent male player is 35 years old. What is the age of a most frequent female player?":["44"]},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>{"True or false: According to the 2016 ESA report, 68% of parents say video games are a positive part of their child’s life and 62% of parents whose children are gamers play computer and video games with their children at least weekly.":["TRUE"]},</v>
       </c>
